--- a/spike_variants.xlsx
+++ b/spike_variants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,51 +453,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L5F, L6A, L7W, 1aatgttcgtgttcttcgcctgggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagtttt1a, None, None, None, None, None</t>
+          <t>*67A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1aatgttcgtgttcttcgcctgggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagtttt1a</t>
+          <t>gcatcgtctcatcggcacctgccacctgacatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagttttgcaaggtggcaggtggacctgagacggcat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None, None, None, None, None</t>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T95I, 1aatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtatcccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagtttt1a, None, None, None</t>
+          <t>*75A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1aatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtatcccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagtttt1a</t>
+          <t>gcatcgtctcatcggcacctgccacctgacatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacgccgaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagttttgcaaggtggcaggtggacctgagacggcat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None, None, None</t>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D253G, 1btgatcctttcctgggtgtgtactaccacaagaacaacaagagctggatggaaagcgagttcagagtctacagcagcgccaacaactgcacattcgagtacgtctctcagccttttctgatggaccttgaggggaaacaaggcaacttcaagaacctgagagaattcgtgttcaagaacatcgacggctacttcaaaatctactccaagcacacacccatcaacctggtccgggacctccctcagggcttcagcgccctggaacccctggtcgacctgcccataggcatcaacataacgcggttccaaaccctgctggccctgcatagatcctacctgactcctggcggcacagcagcagcggatggaccgccggagctgcagcctacta1b, None, None, None</t>
+          <t>*78A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1btgatcctttcctgggtgtgtactaccacaagaacaacaagagctggatggaaagcgagttcagagtctacagcagcgccaacaactgcacattcgagtacgtctctcagccttttctgatggaccttgaggggaaacaaggcaacttcaagaacctgagagaattcgtgttcaagaacatcgacggctacttcaaaatctactccaagcacacacccatcaacctggtccgggacctccctcagggcttcagcgccctggaacccctggtcgacctgcccataggcatcaacataacgcggttccaaaccctgctggccctgcatagatcctacctgactcctggcggcacagcagcagcggatggaccgccggagctgcagcctacta1b</t>
+          <t>gcatcgtctcatcggcacctgccacctgacatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaaggccggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagttttgcaaggtggcaggtggacctgagacggcat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None, None, None</t>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*79A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gcatcgtctcatcggcacctgccacctgacatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccagctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcgggccttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagttttgcaaggtggcaggtggacctgagacggcat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>*260A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gcatcgtctcatcggcacctgccaccgcaatgatcctttcctgggtgtgtactaccacaagaacaacaagagctggatggaaagcgagttcagagtctacagcagcgccaacaactgcacattcgagtacgtctctcagccttttctgatggaccttgaggggaaacaaggcaacttcaagaacctgagagaattcgtgttcaagaacatcgacggctacttcaaaatctactccaagcacacacccatcaacctggtccgggacctccctcagggcttcagcgccctggaacccctggtcgacctgcccataggcatcaacataacgcggttccaaaccctgctggccctgcatagatcctacctgactcctggcgacagcagcagcggatggaccgccccggagctgcagcctactatgtgggtggcaggtggacctgagacggcat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>*24A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gcatcgtctcatcggcacctgccacctgacatgttcgtgttcctggtgctcctgcctctggtgagcagccagtgcgtgaacctgaccacccgaacccaggcctcccaccagcctacaccaacagctttacacggggcgtgtactaccctgacaaggtgttcagatctagcgtcctgcacagcactcaggacctcttcctgccgttcttcagcaacgtgacatggttccacgccatccacgtgagcggcacaaacggaaccaagcggtttgataaccccgtcctgccattcaatgatggagtttacttcgccagtaccgagaagagtaacatcatccggggctggatcttcggcaccaccctggatagcaaaacacagagcctcctgatcgtgaacaatgccacgaacgtcgtgatcaaggtgtgcgagttccagttttgcaaggtggcaggtggacctgagacggcat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
         </is>
       </c>
     </row>

--- a/spike_variants.xlsx
+++ b/spike_variants.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None, None, There is a BsmBI or AarI site in this sequence</t>
+          <t>None, None, None</t>
         </is>
       </c>
     </row>
